--- a/Results/Exp7-10.xlsx
+++ b/Results/Exp7-10.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,57 +462,45 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Math CAT/NUM</v>
+        <v>Linguistic CAT/NUM + POS</v>
       </c>
       <c r="B3" t="str">
         <v>Random Forest</v>
       </c>
       <c r="C3" t="str">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="D3" t="str">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="E3" t="str">
-        <v>0.31</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Naive Bayes</v>
-      </c>
-      <c r="G3" t="str">
-        <v>0.49</v>
-      </c>
-      <c r="H3" t="str">
-        <v>0.47</v>
-      </c>
-      <c r="I3" t="str">
-        <v>NA</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Cohmetrix + Best Math</v>
+        <v>Math CAT/NUM</v>
       </c>
       <c r="B4" t="str">
-        <v>Light GBM</v>
+        <v>Random Forest</v>
       </c>
       <c r="C4" t="str">
-        <v>0.98</v>
+        <v>0.48</v>
       </c>
       <c r="D4" t="str">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="E4" t="str">
-        <v>NA</v>
+        <v>0.31</v>
       </c>
       <c r="F4" t="str">
-        <v>Light GBM</v>
+        <v>Naive Bayes</v>
       </c>
       <c r="G4" t="str">
-        <v>0.95</v>
+        <v>0.49</v>
       </c>
       <c r="H4" t="str">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I4" t="str">
         <v>NA</v>
@@ -520,16 +508,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Best Math + Best Linguistic</v>
+        <v>Cohmetrix + Best Math</v>
       </c>
       <c r="B5" t="str">
         <v>Light GBM</v>
       </c>
       <c r="C5" t="str">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="D5" t="str">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E5" t="str">
         <v>NA</v>
@@ -538,18 +526,163 @@
         <v>Light GBM</v>
       </c>
       <c r="G5" t="str">
+        <v>0.95</v>
+      </c>
+      <c r="H5" t="str">
+        <v>0.52</v>
+      </c>
+      <c r="I5" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Cohmetrix + Best Math</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Random Forest</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0.84</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0.33</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Random Forest</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H6" t="str">
+        <v>0.46</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Best Math + Best Linguistic</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Light GBM</v>
+      </c>
+      <c r="C7" t="str">
         <v>0.76</v>
       </c>
-      <c r="H5" t="str">
+      <c r="D7" t="str">
+        <v>0.38</v>
+      </c>
+      <c r="E7" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Light GBM</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.76</v>
+      </c>
+      <c r="H7" t="str">
         <v>0.53</v>
       </c>
-      <c r="I5" t="str">
-        <v>NA</v>
+      <c r="I7" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Best Math + Best Linguistic</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Random Forest</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0.67</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0.33</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Random Forest</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0.73</v>
+      </c>
+      <c r="H8" t="str">
+        <v>0.52</v>
+      </c>
+      <c r="I8" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Only Cometrix</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Light GBM</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0.96</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="E9" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Light GBM</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0.96</v>
+      </c>
+      <c r="H9" t="str">
+        <v>0.52</v>
+      </c>
+      <c r="I9" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Only Cometrix</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Random Forest</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0.91</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0.31</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0.33</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Random Forest</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0.84</v>
+      </c>
+      <c r="H10" t="str">
+        <v>0.47</v>
+      </c>
+      <c r="I10" t="str">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>